--- a/documents/8-1 - BTS SIO - 2025 - Annexe 8-1 - Epreuve E5 - Tableau de synthese Amélé Sandrine.xlsx
+++ b/documents/8-1 - BTS SIO - 2025 - Annexe 8-1 - Epreuve E5 - Tableau de synthese Amélé Sandrine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\1_ 2ieme année_Réseau\Projets E4 pour le BTS\finiiiiiiiiiiiiiiiiii\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\portfolio de sandrine\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B131067-4EFE-4D82-8669-09CCD5A1693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CEC856-EAFE-4DA4-A389-ED2DEE1CE7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -87,9 +87,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SISR</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>SESSION 2025</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>Mise en place du protocol HSRP</t>
   </si>
   <si>
-    <t>Configuration NAT</t>
-  </si>
-  <si>
     <t>Installation et configuration d'un serveur DHCP</t>
   </si>
   <si>
@@ -183,21 +171,71 @@
     <t>script Powershell permettant d’automatiser l'instation d'un AD</t>
   </si>
   <si>
-    <t>Synchronisation Active Directory</t>
-  </si>
-  <si>
     <t>Configuration ACLS</t>
   </si>
   <si>
-    <t>N° candidat : 2443834729</t>
+    <t>Helpdesk, traitement de tickets</t>
+  </si>
+  <si>
+    <t>du 29/04/2024 - 15/05/2024</t>
+  </si>
+  <si>
+    <t>Configuration du protocol NAT</t>
+  </si>
+  <si>
+    <t>Configuration et Synchronisation Active Directory</t>
+  </si>
+  <si>
+    <t>Du 14/03/2023 -15/04/2025</t>
+  </si>
+  <si>
+    <t>NOM et prénom :  AGBOMEDJI Amélé Sandrine Lolognon</t>
+  </si>
+  <si>
+    <t>Centre de formation : Aurlom Education</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://deb02sandra.github.io/Portfolio-de-Sandrine/</t>
+  </si>
+  <si>
+    <t>Du 15/12/2024-18/12/2024</t>
+  </si>
+  <si>
+    <t>Du 20/12/2024-25/12/2025</t>
+  </si>
+  <si>
+    <t>Du 05/01/2025-15/01/2025</t>
+  </si>
+  <si>
+    <t>du 17/05/2024 - 20/06/2024</t>
+  </si>
+  <si>
+    <t>Du 22/01/2025-15/03/2025</t>
+  </si>
+  <si>
+    <t>Du 05/04/2025-21/04/2025</t>
+  </si>
+  <si>
+    <t>Du 29/03/2025-21/04/2026</t>
+  </si>
+  <si>
+    <t>Du 28/01/2025 - 27/02/205</t>
+  </si>
+  <si>
+    <t>27/03/2024- 13/04/2025</t>
+  </si>
+  <si>
+    <t>N° candidat : 02443834729</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -659,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -667,14 +705,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,17 +720,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -721,14 +747,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,14 +756,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -778,29 +822,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,13 +871,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>278329</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>221426</xdr:rowOff>
+      <xdr:rowOff>221427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>346364</xdr:colOff>
+      <xdr:colOff>369337</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>357497</xdr:rowOff>
+      <xdr:rowOff>320741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -848,8 +892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10686556" y="1745426"/>
-          <a:ext cx="68035" cy="136071"/>
+          <a:off x="11309834" y="1747371"/>
+          <a:ext cx="91008" cy="99314"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartCollate">
           <a:avLst/>
@@ -1099,8 +1143,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>830035</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>504264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1443,13 +1487,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>775607</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>489857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1493,13 +1537,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>367393</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>449035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1543,13 +1587,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>775606</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>449035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1593,13 +1637,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>775607</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>476249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1643,13 +1687,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>775608</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1693,13 +1737,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>898071</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>435428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1743,13 +1787,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>870857</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1793,13 +1837,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>789214</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>489857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1843,13 +1887,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>449036</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>843643</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>27213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1892,14 +1936,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>789214</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>462643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1929,7 +1973,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7130143" y="18124715"/>
+          <a:off x="7052388" y="18175255"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1943,14 +1987,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>802821</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>504264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2043,13 +2087,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>775607</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>489857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2544,92 +2588,142 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>816429</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Graphique 37" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A8908A-EEAF-4767-90A7-6B81E0B779FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12096751" y="13838464"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="394607" cy="394607"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Graphique 36" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC81ACEC-3708-44C8-AFCF-CF2693806B51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12069536" y="13144499"/>
-          <a:ext cx="394607" cy="394607"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>421822</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
+    <xdr:ext cx="394607" cy="394607"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Graphique 38" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22AFB695-0F0C-47AB-A0ED-4A7E7128EF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12096751" y="13838464"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>435428</xdr:rowOff>
+      <xdr:colOff>830035</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Graphique 37" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A8908A-EEAF-4767-90A7-6B81E0B779FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12096751" y="13838464"/>
+        <xdr:cNvPr id="40" name="Graphique 39" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2073A6B9-A13D-49AD-9385-FCD41248B529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12110357" y="15131143"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2640,69 +2734,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>421822</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="394607" cy="394607"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Graphique 38" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22AFB695-0F0C-47AB-A0ED-4A7E7128EF47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12096751" y="13838464"/>
-          <a:ext cx="394607" cy="394607"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>435428</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>830035</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>489857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Graphique 39" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2073A6B9-A13D-49AD-9385-FCD41248B529}"/>
+    <xdr:ext cx="394607" cy="394607"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Graphique 40" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751A48F3-8E0B-41DE-A501-0B0F49FEEE57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2777,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2744,32 +2788,32 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Graphique 40" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751A48F3-8E0B-41DE-A501-0B0F49FEEE57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12110357" y="15131143"/>
+        <xdr:cNvPr id="42" name="Graphique 41" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EA32E1-6606-4745-9940-896220188A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12110357" y="15634607"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2789,32 +2833,32 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Graphique 41" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EA32E1-6606-4745-9940-896220188A8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12110357" y="15634607"/>
+        <xdr:cNvPr id="43" name="Graphique 42" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21D3FBF-9453-45C0-A5D9-0CBD075E645B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12110357" y="16138071"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2834,32 +2878,32 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Graphique 42" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21D3FBF-9453-45C0-A5D9-0CBD075E645B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12110357" y="16138071"/>
+        <xdr:cNvPr id="44" name="Graphique 43" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC924FE-7233-48EE-BAF6-7D8A0BFB6C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12110357" y="16641536"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2879,32 +2923,32 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Graphique 43" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC924FE-7233-48EE-BAF6-7D8A0BFB6C0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12110357" y="16641536"/>
+        <xdr:cNvPr id="45" name="Graphique 44" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46FE66A-F190-4B5C-8B00-FBF38F517E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12110357" y="17145000"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2924,32 +2968,32 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Graphique 44" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46FE66A-F190-4B5C-8B00-FBF38F517E6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12110357" y="17145000"/>
+        <xdr:cNvPr id="46" name="Graphique 45" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9833D9-51B2-4D53-8989-83B7F2837383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12110357" y="17648464"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2969,32 +3013,32 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Graphique 45" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9833D9-51B2-4D53-8989-83B7F2837383}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12110357" y="17648464"/>
+        <xdr:cNvPr id="47" name="Graphique 46" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0F3583-4774-4792-8F79-D79044D68279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12110357" y="18151929"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3014,51 +3058,6 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Graphique 46" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0F3583-4774-4792-8F79-D79044D68279}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12110357" y="18151929"/>
-          <a:ext cx="394607" cy="394607"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="394607" cy="394607"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="48" name="Graphique 47" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -3143,13 +3142,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>432955</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>827562</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>446561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3189,6 +3188,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="394607" cy="394607"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Graphique 50" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD2409F-3A2E-4964-BB46-25DE9C9D21F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9594273" y="15049499"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -3199,10 +3243,10 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Graphique 50" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD2409F-3A2E-4964-BB46-25DE9C9D21F0}"/>
+        <xdr:cNvPr id="52" name="Graphique 51" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776DD4ED-E38E-4BD7-BDB6-C062587D6E19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,10 +3288,10 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Graphique 51" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776DD4ED-E38E-4BD7-BDB6-C062587D6E19}"/>
+        <xdr:cNvPr id="53" name="Graphique 52" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B5FE2D-59C9-4675-9126-6BB7F1A7E41A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3289,32 +3333,32 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Graphique 52" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B5FE2D-59C9-4675-9126-6BB7F1A7E41A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9594273" y="15049499"/>
+        <xdr:cNvPr id="54" name="Graphique 53" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62ADAA7-7DD0-49E2-A753-68EBD8B37292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9594273" y="16556181"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3334,10 +3378,10 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Graphique 53" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62ADAA7-7DD0-49E2-A753-68EBD8B37292}"/>
+        <xdr:cNvPr id="55" name="Graphique 54" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887610B8-87B2-4AC8-8F96-DD1D990395EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,32 +3423,32 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Graphique 54" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887610B8-87B2-4AC8-8F96-DD1D990395EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9594273" y="16556181"/>
+        <xdr:cNvPr id="56" name="Graphique 55" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB55EC7-162E-44B7-8FF4-CD517DAE04CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9594273" y="17560636"/>
           <a:ext cx="394607" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3424,10 +3468,10 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Graphique 55" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB55EC7-162E-44B7-8FF4-CD517DAE04CF}"/>
+        <xdr:cNvPr id="57" name="Graphique 56" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A69D4C-B011-4B71-82F3-74B6EBEE4CB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,51 +3513,6 @@
     <xdr:ext cx="394607" cy="394607"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Graphique 56" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A69D4C-B011-4B71-82F3-74B6EBEE4CB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9594273" y="17560636"/>
-          <a:ext cx="394607" cy="394607"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>432955</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="394607" cy="394607"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="58" name="Graphique 57" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -3594,6 +3593,406 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>417932</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812539</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>419878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Graphique 59" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58742E83-4327-4408-81D0-8010EB34A336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7075713" y="19648715"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>398495</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>793102</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>433485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Graphique 60" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C7A90F-83F7-4E4D-9F2D-BEA3746F32F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544439" y="19662322"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>456811</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>851418</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>423765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Graphique 61" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA9C179-AF6E-4356-B51D-0B923A1A6DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12090918" y="19652602"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365448</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>62204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>760055</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>456811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Graphique 63" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE8F4DD-8D39-430A-9B25-E0CF0DC1CBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11396953" y="8100138"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>369337</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>87475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>763944</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>482082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Graphique 64" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF113132-2146-4D40-9E0F-0E41A4BD1551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10156760" y="10652449"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>369337</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>58317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>763944</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>452924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Graphique 65" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AC4D4D-CE56-4E2E-B753-46CDB1814FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10156760" y="11128700"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388776</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>783383</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>443204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Graphique 66" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFC2255-FE85-4091-9B96-049B62CCD199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10176199" y="11624388"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>379056</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>773663</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>482080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Graphique 67" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9013B134-F893-4481-A86D-FB709B5438B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10166479" y="12168672"/>
+          <a:ext cx="394607" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3901,137 +4300,137 @@
   </sheetPr>
   <dimension ref="A1:AQ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="98" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.42578125" customWidth="1"/>
     <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="46" t="s">
+      <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="28"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="A5" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -4071,16 +4470,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="A8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -4118,18 +4517,18 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="21">
-        <v>45901</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="42">
+        <v>45552</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -4167,16 +4566,18 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="48">
+        <v>45552</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -4214,16 +4615,18 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="48">
+        <v>45583</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -4261,16 +4664,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="42">
+        <v>45566</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -4308,16 +4713,18 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="42">
+        <v>45643</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -4355,16 +4762,18 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="42">
+        <v>45629</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -4402,16 +4811,18 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="42">
+        <v>45630</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -4449,16 +4860,18 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="B16" s="42">
+        <v>45572</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -4496,16 +4909,18 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="A17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="42">
+        <v>44998</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -4543,16 +4958,18 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="19"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -4589,15 +5006,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -4634,17 +5053,19 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -4682,18 +5103,18 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="21">
-        <v>45231</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -4730,17 +5151,17 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -4777,17 +5198,19 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -4825,16 +5248,18 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -4872,16 +5297,18 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -4919,16 +5346,18 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -4966,16 +5395,18 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+      <c r="A27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -5013,16 +5444,18 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -5060,16 +5493,18 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="A29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="14"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -5107,16 +5542,18 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="18"/>
+      <c r="A30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="49">
+        <v>45419</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="14"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -5154,16 +5591,18 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="18"/>
+      <c r="A31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="49">
+        <v>45328</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="14"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -5201,16 +5640,18 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="14"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -5248,16 +5689,18 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18"/>
+      <c r="B33" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="14"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -5295,14 +5738,13 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -5339,8 +5781,13 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+    </row>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5387,24 +5834,24 @@
     <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>